--- a/LISTA DE PCS ANTIVIRUS doc.xlsx
+++ b/LISTA DE PCS ANTIVIRUS doc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silverit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silverit\Desktop\Informes 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Hoja 1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1766,7 +1767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="H105" sqref="H105"/>
     </sheetView>
   </sheetViews>
